--- a/2017FRCNECMP_AllianceScores.xlsx
+++ b/2017FRCNECMP_AllianceScores.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a01/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a01/Desktop/Coding/PycharmProjects/2017FRC_DataScrapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="redScore" sheetId="1" r:id="rId1"/>
@@ -339,8 +339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A1032"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection sqref="A1:A1033"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,1056 +1392,1056 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:A1032"/>
+  <dimension ref="A1:A1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A662" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>265</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>285</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>285</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>352</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>299</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>145</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>245</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>308</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>308</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>255</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>265</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>258</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104">
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
         <v>272</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
         <v>347</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
         <v>325</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134">
         <v>204</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
         <v>204</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
         <v>356</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
         <v>356</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
         <v>305</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
         <v>305</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
         <v>300</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185">
         <v>296</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191">
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
         <v>316</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
         <v>316</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203">
         <v>351</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209">
         <v>351</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215">
         <v>329</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221">
         <v>329</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224">
         <v>285</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227">
         <v>285</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230">
         <v>270</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233">
         <v>270</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239">
         <v>352</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245">
         <v>352</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248">
         <v>311</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251">
         <v>311</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254">
         <v>336</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257">
         <v>336</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260">
         <v>305</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263">
         <v>305</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A294">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269">
         <v>296</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A300">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275">
         <v>296</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A303">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A278">
         <v>285</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A306">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281">
         <v>285</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A312">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287">
         <v>329</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A318">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293">
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A299">
         <v>297</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305">
         <v>297</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A308">
         <v>290</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311">
         <v>290</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A342">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329">
         <v>326</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335">
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338">
         <v>256</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
         <v>256</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344">
         <v>235</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A372">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347">
         <v>235</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350">
         <v>180</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A378">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353">
         <v>180</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A384">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359">
         <v>311</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A390">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365">
         <v>311</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A396">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A402">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A405">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380">
         <v>255</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A408">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383">
         <v>255</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A414">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389">
         <v>294</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A420">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395">
         <v>294</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A423">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398">
         <v>305</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A426">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401">
         <v>305</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A432">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407">
         <v>295</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A438">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413">
         <v>295</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A441">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416">
         <v>258</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A444">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419">
         <v>258</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A450">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425">
         <v>295</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A456">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431">
         <v>295</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A462">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437">
         <v>297</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A468">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443">
         <v>297</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A474">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449">
         <v>353</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A480">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
         <v>353</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A486">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
         <v>301</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A492">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A467">
         <v>301</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A498">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A473">
         <v>250</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A504">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A479">
         <v>250</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A510">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A485">
         <v>351</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A516">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A491">
         <v>351</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A519">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A494">
         <v>255</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A522">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A497">
         <v>255</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A528">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A503">
         <v>299</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A534">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A509">
         <v>299</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A540">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A515">
         <v>325</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A546">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A521">
         <v>325</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A552">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A558">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A564">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A539">
         <v>298</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A570">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A545">
         <v>298</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A576">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A551">
         <v>350</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A582">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A557">
         <v>350</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A585">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A560">
         <v>308</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A588">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A563">
         <v>308</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A594">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A569">
         <v>370</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A600">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A575">
         <v>370</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A606">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A581">
         <v>247</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A612">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587">
         <v>247</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A618">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A593">
         <v>298</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A624">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A599">
         <v>298</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A630">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A605">
         <v>325</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A636">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A611">
         <v>325</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A642">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A617">
         <v>228</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A648">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A623">
         <v>228</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A654">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A660">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A666">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A672">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A678">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A653">
         <v>354</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A684">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A659">
         <v>354</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A687">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A662">
         <v>255</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A690">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A665">
         <v>255</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A696">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A671">
         <v>324</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A702">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A677">
         <v>324</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A705">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A680">
         <v>288</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A708">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A683">
         <v>288</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A711">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A686">
         <v>205</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A714">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A689">
         <v>205</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A720">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A695">
         <v>353</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A726">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A701">
         <v>353</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A729">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704">
         <v>285</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A732">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A707">
         <v>285</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A738">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A713">
         <v>376</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A744">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A719">
         <v>376</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A750">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A756">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A762">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A737">
         <v>245</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A768">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A743">
         <v>245</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A774">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A749">
         <v>357</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A780">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A755">
         <v>357</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A783">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A758">
         <v>316</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A786">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A761">
         <v>316</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A792">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A767">
         <v>357</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A798">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A773">
         <v>357</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A801">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776">
         <v>306</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A804">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779">
         <v>306</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A810">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785">
         <v>225</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A816">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791">
         <v>225</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A822">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797">
         <v>325</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A828">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803">
         <v>325</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A834">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809">
         <v>370</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A840">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815">
         <v>370</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A846">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821">
         <v>470</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A852">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827">
         <v>470</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A858">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833">
         <v>420</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A864">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839">
         <v>420</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A867">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842">
         <v>333</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A870">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845">
         <v>333</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A876">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851">
         <v>460</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A882">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857">
         <v>460</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A885">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860">
         <v>265</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A888">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863">
         <v>265</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A894">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869">
         <v>445</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A900">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875">
         <v>445</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A903">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878">
         <v>255</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A906">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881">
         <v>255</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A912">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887">
         <v>482</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A918">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893">
         <v>482</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A924">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899">
         <v>457</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A930">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905">
         <v>457</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A936">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911">
         <v>450</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A942">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917">
         <v>450</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A951">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926">
         <v>472</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A960">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935">
         <v>472</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A969">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944">
         <v>466</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A978">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953">
         <v>466</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A984">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959">
         <v>333</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A990">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965">
         <v>333</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A996">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971">
         <v>401</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1002">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977">
         <v>401</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1005">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980">
         <v>325</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1008">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983">
         <v>325</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1014">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989">
         <v>346</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1020">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995">
         <v>346</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1023">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998">
         <v>364</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1026">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001">
         <v>364</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1029">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004">
         <v>342</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1032">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007">
         <v>342</v>
       </c>
     </row>
